--- a/E4/E4.Device/PDO Mappings.xlsx
+++ b/E4/E4.Device/PDO Mappings.xlsx
@@ -218,7 +218,7 @@
     <t>Stepper 0 Status Word; 0x7041 (uint16_t)</t>
   </si>
   <si>
-    <t>Stepper 1 Status Word; 0x7041 (uint16_t)</t>
+    <t>Stepper 1 Status Word; 0x7841 (uint16_t)</t>
   </si>
 </sst>
 </file>
@@ -446,28 +446,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,7 +787,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,16 +798,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -851,22 +851,22 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="13" t="s">
         <v>39</v>
       </c>
@@ -878,18 +878,18 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="24"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="8" t="s">
         <v>32</v>
       </c>
@@ -901,18 +901,18 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="12" t="s">
         <v>33</v>
       </c>
@@ -1066,22 +1066,22 @@
       <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20" t="s">
+      <c r="H14" s="22"/>
+      <c r="I14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="8" t="s">
         <v>31</v>
       </c>
@@ -1093,18 +1093,18 @@
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="12" t="s">
         <v>28</v>
       </c>
@@ -1116,18 +1116,18 @@
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="12" t="s">
         <v>29</v>
       </c>
@@ -1174,18 +1174,18 @@
       <c r="B19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1201,12 +1201,12 @@
       <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="23"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="11" t="s">
         <v>38</v>
       </c>
@@ -1224,14 +1224,14 @@
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1259,16 +1259,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C3:D3"/>
@@ -1282,6 +1272,16 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/E4/E4.Device/PDO Mappings.xlsx
+++ b/E4/E4.Device/PDO Mappings.xlsx
@@ -95,9 +95,6 @@
     <t>Temp; 0x6C10, 0x01 (int8_t)</t>
   </si>
   <si>
-    <t>Temp; 0x2305, 0x01 (int8_t)</t>
-  </si>
-  <si>
     <t>TPDO5</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Stepper 1 Status Word; 0x7841 (uint16_t)</t>
+  </si>
+  <si>
+    <t>Temp; 0x2311, 0x01 (int8_t)</t>
   </si>
 </sst>
 </file>
@@ -446,28 +446,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,7 +787,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,16 +798,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -851,24 +851,24 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,20 +878,20 @@
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="26"/>
+      <c r="C4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -901,20 +901,20 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="24"/>
+      <c r="C5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
     </row>
     <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>10</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="9" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>11</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="10" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>12</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="11" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>13</v>
@@ -1066,24 +1066,24 @@
       <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="26"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1093,20 +1093,20 @@
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="24"/>
+      <c r="C15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,20 +1116,20 @@
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="24"/>
+      <c r="C16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="14"/>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,80 +1169,80 @@
     </row>
     <row r="19" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="4" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="11"/>
       <c r="K20" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="15"/>
       <c r="K21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>13</v>
@@ -1259,6 +1259,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C3:D3"/>
@@ -1272,16 +1282,6 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/E4/E4.Device/PDO Mappings.xlsx
+++ b/E4/E4.Device/PDO Mappings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>RPDOs</t>
   </si>
@@ -149,9 +149,6 @@
     <t>IMU Data + MCU Temp</t>
   </si>
   <si>
-    <t>Laser Scanner Return Distance TPDO + Laser Position</t>
-  </si>
-  <si>
     <t>IMU Roll Val; 0x2441, 0x01 (int16_t)</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>IMU Yaw Val; 0x2441, 0x03 (int16_t)</t>
   </si>
   <si>
-    <t>Stepper 0/1 Status</t>
-  </si>
-  <si>
     <t>BLDC 0 Control Word; 0x6040; (uint16_t)</t>
   </si>
   <si>
@@ -219,6 +213,24 @@
   </si>
   <si>
     <t>Temp; 0x2311, 0x01 (int8_t)</t>
+  </si>
+  <si>
+    <t>DC Link; 0x2000 (uint8_t)</t>
+  </si>
+  <si>
+    <t>Target IMU Roll; 0x2445, 0x01 (int16_t)</t>
+  </si>
+  <si>
+    <t>Target IMU Pitch; 0x2445, 0x02 (int16_t)</t>
+  </si>
+  <si>
+    <t>Target IMU Yaw; 0x2445, 0x03 (int16_t)</t>
+  </si>
+  <si>
+    <t>Stepper 0/1 Status + Target IMU Data</t>
+  </si>
+  <si>
+    <t>Laser Scanner Return Distance TPDO + Laser Position + Target IMU Data</t>
   </si>
 </sst>
 </file>
@@ -436,9 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -468,6 +477,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -786,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,16 +810,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -851,22 +863,22 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="13" t="s">
         <v>38</v>
       </c>
@@ -875,21 +887,21 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="24"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
@@ -901,18 +913,18 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="12" t="s">
         <v>32</v>
       </c>
@@ -924,7 +936,7 @@
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -953,7 +965,7 @@
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -967,10 +979,10 @@
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -987,7 +999,7 @@
       <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1066,22 +1078,22 @@
       <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1093,18 +1105,18 @@
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="22"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="12" t="s">
         <v>27</v>
       </c>
@@ -1116,18 +1128,18 @@
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="22"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1136,16 +1148,18 @@
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1171,23 +1185,23 @@
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="12" t="s">
@@ -1198,23 +1212,25 @@
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="23"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="22"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="17" t="s">
-        <v>41</v>
+      <c r="K20" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1224,30 +1240,34 @@
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="15"/>
+      <c r="C21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="26"/>
       <c r="K21" s="8" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1258,7 +1278,10 @@
       <c r="K22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>

--- a/E4/E4.Device/PDO Mappings.xlsx
+++ b/E4/E4.Device/PDO Mappings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>RPDOs</t>
   </si>
@@ -143,9 +143,6 @@
     <t>BLDC 0/1 Control / Target Torque</t>
   </si>
   <si>
-    <t>Laser Measured Distance (mm); 0x2402 (uint32_t)</t>
-  </si>
-  <si>
     <t>IMU Data + MCU Temp</t>
   </si>
   <si>
@@ -230,7 +227,13 @@
     <t>Stepper 0/1 Status + Target IMU Data</t>
   </si>
   <si>
-    <t>Laser Scanner Return Distance TPDO + Laser Position + Target IMU Data</t>
+    <t>Laser Measure Highest Sub; 0x2402, 0x00 (uint8_t)</t>
+  </si>
+  <si>
+    <t>Laser Scanner Status + Readings + Laser Position + Target IMU Data</t>
+  </si>
+  <si>
+    <t>Laser Status Byte; 0x2405, 0x00 (uint8_t)</t>
   </si>
 </sst>
 </file>
@@ -473,13 +476,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,7 +802,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,19 +867,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="13" t="s">
@@ -891,13 +894,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -914,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -1079,19 +1082,19 @@
         <v>3</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="8" t="s">
@@ -1106,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -1129,13 +1132,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1158,7 +1161,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1189,23 +1192,23 @@
         <v>10</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1215,17 +1218,19 @@
       <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="F20" s="22"/>
       <c r="G20" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="11"/>
@@ -1240,24 +1245,24 @@
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,13 +1283,14 @@
       <c r="K22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>

--- a/E4/E4.Device/PDO Mappings.xlsx
+++ b/E4/E4.Device/PDO Mappings.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="13980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Laser Robot" sheetId="1" r:id="rId1"/>
+    <sheet name="Target Robot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
   <si>
     <t>RPDOs</t>
   </si>
@@ -218,22 +219,28 @@
     <t>Target IMU Roll; 0x2445, 0x01 (int16_t)</t>
   </si>
   <si>
-    <t>Target IMU Pitch; 0x2445, 0x02 (int16_t)</t>
-  </si>
-  <si>
-    <t>Target IMU Yaw; 0x2445, 0x03 (int16_t)</t>
-  </si>
-  <si>
     <t>Stepper 0/1 Status + Target IMU Data</t>
   </si>
   <si>
     <t>Laser Measure Highest Sub; 0x2402, 0x00 (uint8_t)</t>
   </si>
   <si>
-    <t>Laser Scanner Status + Readings + Laser Position + Target IMU Data</t>
-  </si>
-  <si>
     <t>Laser Status Byte; 0x2405, 0x00 (uint8_t)</t>
+  </si>
+  <si>
+    <t>Laser Scanner Status + Readings</t>
+  </si>
+  <si>
+    <t>IMU Yaw Val; 0x2445, 0x03 (int16_t)</t>
+  </si>
+  <si>
+    <t>IMU Pitch Val; 0x2445, 0x02 (int16_t)</t>
+  </si>
+  <si>
+    <t>Main Board IMU Data + MCU Temp</t>
+  </si>
+  <si>
+    <t>Target IMU Data + Laser Position</t>
   </si>
 </sst>
 </file>
@@ -429,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -458,13 +465,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -473,16 +477,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,7 +812,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,16 +823,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -866,22 +876,22 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="13" t="s">
         <v>38</v>
       </c>
@@ -893,18 +903,18 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
@@ -916,18 +926,18 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="12" t="s">
         <v>32</v>
       </c>
@@ -1081,22 +1091,22 @@
       <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="24"/>
+      <c r="I14" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="23"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1108,18 +1118,18 @@
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="21"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="12" t="s">
         <v>27</v>
       </c>
@@ -1131,18 +1141,18 @@
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="21"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1191,18 +1201,18 @@
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="24"/>
+      <c r="G19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="4" t="s">
         <v>61</v>
       </c>
@@ -1218,24 +1228,20 @@
       <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="22"/>
+      <c r="C20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="11"/>
       <c r="K20" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,24 +1251,20 @@
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,21 +1285,7 @@
       <c r="K22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
+  <mergeCells count="24">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C3:D3"/>
@@ -1311,8 +1299,531 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/E4/E4.Device/PDO Mappings.xlsx
+++ b/E4/E4.Device/PDO Mappings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="13980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="13980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Laser Robot" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
   <si>
     <t>RPDOs</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Row / Col; 0x2410, 0x01</t>
   </si>
   <si>
-    <t>BLDC 0/1 Control / Target Torque</t>
-  </si>
-  <si>
     <t>IMU Data + MCU Temp</t>
   </si>
   <si>
@@ -156,15 +153,9 @@
     <t>IMU Yaw Val; 0x2441, 0x03 (int16_t)</t>
   </si>
   <si>
-    <t>BLDC 0 Control Word; 0x6040; (uint16_t)</t>
-  </si>
-  <si>
     <t>BLDC 0 Target Torque; 0x6071 (uint16_t)</t>
   </si>
   <si>
-    <t>BLDC 1 Control Word; 0x6840; (uint16_t)</t>
-  </si>
-  <si>
     <t>BLDC 1 Target Torque; 0x6871 (uint16_t)</t>
   </si>
   <si>
@@ -231,16 +222,28 @@
     <t>Laser Scanner Status + Readings</t>
   </si>
   <si>
-    <t>IMU Yaw Val; 0x2445, 0x03 (int16_t)</t>
-  </si>
-  <si>
-    <t>IMU Pitch Val; 0x2445, 0x02 (int16_t)</t>
-  </si>
-  <si>
     <t>Main Board IMU Data + MCU Temp</t>
   </si>
   <si>
     <t>Target IMU Data + Laser Position</t>
+  </si>
+  <si>
+    <t>Target IMU Pitch Val; 0x2445, 0x02 (int16_t)</t>
+  </si>
+  <si>
+    <t>Target IMU Yaw Val; 0x2445, 0x03 (int16_t)</t>
+  </si>
+  <si>
+    <t>Main IMU Roll Val; 0x2441, 0x01 (int16_t)</t>
+  </si>
+  <si>
+    <t>Main IMU Pitch Val; 0x2441, 0x02 (int16_t)</t>
+  </si>
+  <si>
+    <t>Main IMU Yaw Val; 0x2441, 0x03 (int16_t)</t>
+  </si>
+  <si>
+    <t>BLDC  0/1 Target Torque</t>
   </si>
 </sst>
 </file>
@@ -471,17 +474,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -489,10 +483,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -811,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="C3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,16 +826,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -876,24 +879,20 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="20"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="13" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,18 +902,18 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="27"/>
+      <c r="C4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
@@ -926,18 +925,18 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="20"/>
+      <c r="C5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="12" t="s">
         <v>32</v>
       </c>
@@ -1091,22 +1090,22 @@
       <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="27"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1118,18 +1117,18 @@
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="20"/>
+      <c r="C15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="12" t="s">
         <v>27</v>
       </c>
@@ -1141,18 +1140,18 @@
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1171,7 +1170,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1201,24 +1200,24 @@
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,20 +1227,20 @@
       <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="21"/>
+      <c r="C20" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="24"/>
       <c r="G20" s="4"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="11"/>
       <c r="K20" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1251,20 +1250,20 @@
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="21"/>
+      <c r="C21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="24"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="19"/>
       <c r="K21" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,6 +1285,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C3:D3"/>
@@ -1299,17 +1309,6 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1320,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,16 +1331,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1385,24 +1384,20 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="20"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="13" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,18 +1407,18 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="27"/>
+      <c r="C4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
@@ -1435,18 +1430,18 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="20"/>
+      <c r="C5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="12" t="s">
         <v>32</v>
       </c>
@@ -1600,22 +1595,22 @@
       <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="27"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1627,18 +1622,18 @@
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="20"/>
+      <c r="C15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="12" t="s">
         <v>27</v>
       </c>
@@ -1650,18 +1645,18 @@
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1710,24 +1705,24 @@
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="C19" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="21"/>
       <c r="I19" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,24 +1732,24 @@
       <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
+      <c r="C20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1764,19 +1759,17 @@
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="21"/>
+      <c r="C21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="J21" s="19"/>
       <c r="K21" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1798,11 +1791,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="C16:F16"/>
@@ -1810,19 +1811,11 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/E4/E4.Device/PDO Mappings.xlsx
+++ b/E4/E4.Device/PDO Mappings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="13980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Laser Robot" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
   <si>
     <t>RPDOs</t>
   </si>
@@ -141,6 +141,9 @@
     <t>Row / Col; 0x2410, 0x01</t>
   </si>
   <si>
+    <t>BLDC 0/1 Control / Target Torque</t>
+  </si>
+  <si>
     <t>IMU Data + MCU Temp</t>
   </si>
   <si>
@@ -153,9 +156,15 @@
     <t>IMU Yaw Val; 0x2441, 0x03 (int16_t)</t>
   </si>
   <si>
+    <t>BLDC 0 Control Word; 0x6040; (uint16_t)</t>
+  </si>
+  <si>
     <t>BLDC 0 Target Torque; 0x6071 (uint16_t)</t>
   </si>
   <si>
+    <t>BLDC 1 Control Word; 0x6840; (uint16_t)</t>
+  </si>
+  <si>
     <t>BLDC 1 Target Torque; 0x6871 (uint16_t)</t>
   </si>
   <si>
@@ -213,15 +222,6 @@
     <t>Stepper 0/1 Status + Target IMU Data</t>
   </si>
   <si>
-    <t>Laser Measure Highest Sub; 0x2402, 0x00 (uint8_t)</t>
-  </si>
-  <si>
-    <t>Laser Status Byte; 0x2405, 0x00 (uint8_t)</t>
-  </si>
-  <si>
-    <t>Laser Scanner Status + Readings</t>
-  </si>
-  <si>
     <t>Main Board IMU Data + MCU Temp</t>
   </si>
   <si>
@@ -243,7 +243,16 @@
     <t>Main IMU Yaw Val; 0x2441, 0x03 (int16_t)</t>
   </si>
   <si>
-    <t>BLDC  0/1 Target Torque</t>
+    <t>Most Recent Laser Measured Distance(mm); 0x2402, 0x02</t>
+  </si>
+  <si>
+    <t>Laser Scanner Status + Sample Number + Distance Sample</t>
+  </si>
+  <si>
+    <t>Sample Num; 0x2402, 0x01 (uint8_t)</t>
+  </si>
+  <si>
+    <t>Laser Status; 0x2405, 0x00 (uint8_t)</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -474,6 +483,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,6 +511,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -814,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="C3:K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,16 +844,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -879,20 +897,24 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>43</v>
       </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="F3" s="23"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="G3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="25"/>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,18 +924,18 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
@@ -925,18 +947,18 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="23"/>
+      <c r="C5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="12" t="s">
         <v>32</v>
       </c>
@@ -1090,22 +1112,22 @@
       <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21" t="s">
+      <c r="C14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="27"/>
       <c r="K14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1117,18 +1139,18 @@
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23"/>
+      <c r="C15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="12" t="s">
         <v>27</v>
       </c>
@@ -1140,18 +1162,18 @@
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="23"/>
+      <c r="C16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1170,7 +1192,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1200,24 +1222,24 @@
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="23"/>
       <c r="I19" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,20 +1249,20 @@
       <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="11"/>
+      <c r="C20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
       <c r="K20" s="16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,20 +1272,20 @@
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="24"/>
+      <c r="C21" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="26"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="19"/>
       <c r="K21" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,11 +1306,10 @@
       <c r="K22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
+    <mergeCell ref="E20:H20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
@@ -1319,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,16 +1352,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1384,20 +1405,24 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>43</v>
       </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="F3" s="23"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="G3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="25"/>
       <c r="K3" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1407,18 +1432,18 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
@@ -1430,18 +1455,18 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="23"/>
+      <c r="C5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="12" t="s">
         <v>32</v>
       </c>
@@ -1595,22 +1620,22 @@
       <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21" t="s">
+      <c r="C14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="27"/>
       <c r="K14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1622,18 +1647,18 @@
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="23"/>
+      <c r="C15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="12" t="s">
         <v>27</v>
       </c>
@@ -1645,18 +1670,18 @@
       <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="23"/>
+      <c r="C16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="12" t="s">
         <v>28</v>
       </c>
@@ -1675,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1705,20 +1730,20 @@
       <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="12" t="s">
@@ -1732,18 +1757,18 @@
       <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="11" t="s">
         <v>37</v>
       </c>
@@ -1759,17 +1784,17 @@
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="24"/>
+      <c r="C21" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="J21" s="19"/>
       <c r="K21" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
